--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/10/seed3/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.39709999999999</v>
+        <v>16.3419</v>
       </c>
     </row>
     <row r="4">
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-6.974799999999998</v>
+        <v>-7.096400000000001</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.79199999999999</v>
+        <v>-21.8461</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.5615</v>
+        <v>-21.55270000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.073499999999997</v>
+        <v>-7.9902</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.30370000000001</v>
+        <v>-22.2008</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -746,7 +746,7 @@
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>17.98590000000003</v>
+        <v>18.04710000000001</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.3825</v>
+        <v>16.4955</v>
       </c>
     </row>
     <row r="20">
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.728400000000001</v>
+        <v>-7.620099999999995</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.3537</v>
+        <v>16.31189999999999</v>
       </c>
     </row>
     <row r="28">
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.963299999999999</v>
+        <v>-6.943499999999999</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.680600000000002</v>
+        <v>-7.6985</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.472900000000006</v>
+        <v>-8.593100000000007</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.67839999999999</v>
+        <v>-19.50159999999999</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.385099999999992</v>
+        <v>-8.312999999999994</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.51490000000001</v>
+        <v>16.53840000000001</v>
       </c>
     </row>
     <row r="43">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.41799999999999</v>
+        <v>16.5877</v>
       </c>
     </row>
     <row r="45">
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.3709</v>
+        <v>16.242</v>
       </c>
     </row>
     <row r="48">
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.16710000000001</v>
+        <v>-22.24650000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.26850000000001</v>
+        <v>16.35230000000002</v>
       </c>
     </row>
     <row r="59">
@@ -1584,7 +1584,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.55199999999999</v>
+        <v>-21.56039999999999</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1593,7 +1593,7 @@
         <v>-9.98</v>
       </c>
       <c r="D68" t="n">
-        <v>-6.9144</v>
+        <v>-6.936999999999995</v>
       </c>
       <c r="E68" t="n">
         <v>17.66</v>
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>17.35960000000001</v>
+        <v>17.4343</v>
       </c>
     </row>
     <row r="74">
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.5603</v>
+        <v>-7.507200000000003</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.86429999999999</v>
+        <v>-20.80509999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.55369999999998</v>
+        <v>-20.58389999999997</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1916,7 +1916,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.02389999999999</v>
+        <v>-7.940999999999994</v>
       </c>
       <c r="E87" t="n">
         <v>16.53</v>
@@ -1933,7 +1933,7 @@
         <v>-14.65</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.143499999999997</v>
+        <v>-7.330199999999993</v>
       </c>
       <c r="E88" t="n">
         <v>17.32</v>
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>18.05790000000002</v>
+        <v>18.18490000000002</v>
       </c>
     </row>
     <row r="96">
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.808200000000002</v>
+        <v>-7.893500000000001</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.350400000000002</v>
+        <v>-8.506499999999996</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2154,10 +2154,10 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.858000000000003</v>
+        <v>-7.984899999999997</v>
       </c>
       <c r="E101" t="n">
-        <v>16.78099999999998</v>
+        <v>16.68399999999999</v>
       </c>
     </row>
     <row r="102">
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.856599999999998</v>
+        <v>-7.9171</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
